--- a/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 2.xlsx
+++ b/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 2.xlsx
@@ -567,13 +567,13 @@
         <v>595238732.051612</v>
       </c>
       <c r="I2" t="n">
-        <v>512928142.9662649</v>
+        <v>508319854.1650288</v>
       </c>
       <c r="J2" t="n">
         <v>126084344.2109677</v>
       </c>
       <c r="K2" t="n">
-        <v>386843798.7552972</v>
+        <v>382235509.9540611</v>
       </c>
       <c r="L2" t="n">
         <v>286810394.691612</v>
@@ -588,16 +588,16 @@
         <v>93680000</v>
       </c>
       <c r="P2" t="n">
-        <v>184972206.4755944</v>
+        <v>182592737.1658278</v>
       </c>
       <c r="Q2" t="n">
-        <v>5184570.731431867</v>
+        <v>5112442.108249189</v>
       </c>
       <c r="R2" t="n">
-        <v>45414287.63171205</v>
+        <v>44806030.13968669</v>
       </c>
       <c r="S2" t="n">
-        <v>118593402.9122065</v>
+        <v>117044969.535945</v>
       </c>
       <c r="T2" t="n">
         <v>32679331.00435235</v>
@@ -635,13 +635,13 @@
         <v>296771627.648</v>
       </c>
       <c r="I3" t="n">
-        <v>117235873.4382721</v>
+        <v>116636372.4831401</v>
       </c>
       <c r="J3" t="n">
         <v>1239595.62</v>
       </c>
       <c r="K3" t="n">
-        <v>115996277.8182721</v>
+        <v>115396776.8631401</v>
       </c>
       <c r="L3" t="n">
         <v>99699470.728</v>
@@ -656,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>64467189.37159225</v>
+        <v>64118678.50836706</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6156919.710264545</v>
+        <v>6123748.90786923</v>
       </c>
       <c r="S3" t="n">
-        <v>40291993.35645846</v>
+        <v>40074174.06694699</v>
       </c>
       <c r="T3" t="n">
         <v>5080175.379956795</v>
@@ -771,13 +771,13 @@
         <v>677405395.1227684</v>
       </c>
       <c r="I5" t="n">
-        <v>781461999.4213176</v>
+        <v>771383605.0876495</v>
       </c>
       <c r="J5" t="n">
         <v>306081761.04</v>
       </c>
       <c r="K5" t="n">
-        <v>475380238.3813176</v>
+        <v>465301844.0476494</v>
       </c>
       <c r="L5" t="n">
         <v>358335043.5227684</v>
@@ -792,16 +792,16 @@
         <v>77740000</v>
       </c>
       <c r="P5" t="n">
-        <v>216537484.4570574</v>
+        <v>211419341.9228874</v>
       </c>
       <c r="Q5" t="n">
-        <v>7100818.656665623</v>
+        <v>6925785.747942383</v>
       </c>
       <c r="R5" t="n">
-        <v>51659139.41981053</v>
+        <v>50388004.601105</v>
       </c>
       <c r="S5" t="n">
-        <v>148008755.2858527</v>
+        <v>144494671.2137834</v>
       </c>
       <c r="T5" t="n">
         <v>52074040.56193129</v>
@@ -839,13 +839,13 @@
         <v>439108584.424</v>
       </c>
       <c r="I6" t="n">
-        <v>302024968.6588318</v>
+        <v>301003079.4535442</v>
       </c>
       <c r="J6" t="n">
         <v>99995602.14</v>
       </c>
       <c r="K6" t="n">
-        <v>202029366.5188319</v>
+        <v>201007477.3135442</v>
       </c>
       <c r="L6" t="n">
         <v>137219912.544</v>
@@ -860,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>109331256.8424049</v>
+        <v>108741066.2544914</v>
       </c>
       <c r="Q6" t="n">
-        <v>7486.187267517133</v>
+        <v>7445.841971564401</v>
       </c>
       <c r="R6" t="n">
-        <v>11654438.92388408</v>
+        <v>11591649.76924482</v>
       </c>
       <c r="S6" t="n">
-        <v>68332035.52524284</v>
+        <v>67963166.40780377</v>
       </c>
       <c r="T6" t="n">
         <v>12704149.04003255</v>
@@ -975,13 +975,13 @@
         <v>940411263.5278653</v>
       </c>
       <c r="I8" t="n">
-        <v>877500436.1676915</v>
+        <v>870659595.9739132</v>
       </c>
       <c r="J8" t="n">
         <v>246180749.6806452</v>
       </c>
       <c r="K8" t="n">
-        <v>631319686.4870462</v>
+        <v>624478846.293268</v>
       </c>
       <c r="L8" t="n">
         <v>456532592.1478653</v>
@@ -996,16 +996,16 @@
         <v>197110000</v>
       </c>
       <c r="P8" t="n">
-        <v>310420713.2159333</v>
+        <v>306849362.1589463</v>
       </c>
       <c r="Q8" t="n">
-        <v>7489018.625319344</v>
+        <v>7388044.523480594</v>
       </c>
       <c r="R8" t="n">
-        <v>65631554.45782566</v>
+        <v>64778469.52981458</v>
       </c>
       <c r="S8" t="n">
-        <v>198089416.3331668</v>
+        <v>195773986.2262254</v>
       </c>
       <c r="T8" t="n">
         <v>49688983.85480125</v>
@@ -1043,13 +1043,13 @@
         <v>444183612.6720001</v>
       </c>
       <c r="I9" t="n">
-        <v>417520334.5700843</v>
+        <v>415462754.8777793</v>
       </c>
       <c r="J9" t="n">
         <v>21256842.12</v>
       </c>
       <c r="K9" t="n">
-        <v>396263492.4500844</v>
+        <v>394205912.7577793</v>
       </c>
       <c r="L9" t="n">
         <v>145444325.202</v>
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>221603762.3386739</v>
+        <v>220405281.9218649</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20426486.56817178</v>
+        <v>20316437.55316615</v>
       </c>
       <c r="S9" t="n">
-        <v>138502351.4588681</v>
+        <v>137753301.1983777</v>
       </c>
       <c r="T9" t="n">
         <v>15730892.08437054</v>
@@ -1179,13 +1179,13 @@
         <v>1126245683.152387</v>
       </c>
       <c r="I11" t="n">
-        <v>1423481417.44521</v>
+        <v>1407502781.591431</v>
       </c>
       <c r="J11" t="n">
         <v>656659089.71</v>
       </c>
       <c r="K11" t="n">
-        <v>766822327.7352101</v>
+        <v>750843691.8814312</v>
       </c>
       <c r="L11" t="n">
         <v>595763332.8523866</v>
@@ -1200,16 +1200,16 @@
         <v>198520000</v>
       </c>
       <c r="P11" t="n">
-        <v>347960675.0041583</v>
+        <v>339841664.4412879</v>
       </c>
       <c r="Q11" t="n">
-        <v>11255510.20277409</v>
+        <v>10978731.25095861</v>
       </c>
       <c r="R11" t="n">
-        <v>81933312.49050565</v>
+        <v>79923008.07269934</v>
       </c>
       <c r="S11" t="n">
-        <v>237501433.4948836</v>
+        <v>231928891.5735969</v>
       </c>
       <c r="T11" t="n">
         <v>88171396.54288852</v>
@@ -1247,13 +1247,13 @@
         <v>730056405.222</v>
       </c>
       <c r="I12" t="n">
-        <v>801715638.6681199</v>
+        <v>799580579.7108821</v>
       </c>
       <c r="J12" t="n">
         <v>379289026.79</v>
       </c>
       <c r="K12" t="n">
-        <v>422426611.8781198</v>
+        <v>420291552.9208821</v>
       </c>
       <c r="L12" t="n">
         <v>228140099.352</v>
@@ -1268,16 +1268,16 @@
         <v>205460000</v>
       </c>
       <c r="P12" t="n">
-        <v>228530488.7758141</v>
+        <v>227296816.8834623</v>
       </c>
       <c r="Q12" t="n">
-        <v>29944.74907006853</v>
+        <v>29783.36788625761</v>
       </c>
       <c r="R12" t="n">
-        <v>24163107.34045385</v>
+        <v>24032926.58945622</v>
       </c>
       <c r="S12" t="n">
-        <v>142831555.4820541</v>
+        <v>142060510.5493495</v>
       </c>
       <c r="T12" t="n">
         <v>26871515.53072773</v>
@@ -1383,13 +1383,13 @@
         <v>940411263.5278653</v>
       </c>
       <c r="I14" t="n">
-        <v>869684914.6261405</v>
+        <v>862489842.7597884</v>
       </c>
       <c r="J14" t="n">
         <v>280029917.6832258</v>
       </c>
       <c r="K14" t="n">
-        <v>589654996.9429146</v>
+        <v>582459925.0765626</v>
       </c>
       <c r="L14" t="n">
         <v>456532592.1478653</v>
@@ -1404,16 +1404,16 @@
         <v>226600000</v>
       </c>
       <c r="P14" t="n">
-        <v>283946575.3245376</v>
+        <v>280230616.926057</v>
       </c>
       <c r="Q14" t="n">
-        <v>7850159.019527964</v>
+        <v>7737469.030227639</v>
       </c>
       <c r="R14" t="n">
-        <v>68227815.85560222</v>
+        <v>67287792.16971545</v>
       </c>
       <c r="S14" t="n">
-        <v>182395653.6566539</v>
+        <v>179969253.8639697</v>
       </c>
       <c r="T14" t="n">
         <v>47234793.08659288</v>
@@ -1451,13 +1451,13 @@
         <v>444183612.6720001</v>
       </c>
       <c r="I15" t="n">
-        <v>285610467.8845063</v>
+        <v>284159628.8205163</v>
       </c>
       <c r="J15" t="n">
         <v>4423860.34</v>
       </c>
       <c r="K15" t="n">
-        <v>281186607.5445063</v>
+        <v>279735768.4805163</v>
       </c>
       <c r="L15" t="n">
         <v>145444325.202</v>
@@ -1472,16 +1472,16 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>155643718.7262079</v>
+        <v>154802947.4358522</v>
       </c>
       <c r="Q15" t="n">
-        <v>13100.82771815498</v>
+        <v>13030.2234502377</v>
       </c>
       <c r="R15" t="n">
-        <v>15687035.39718307</v>
+        <v>15602520.28427844</v>
       </c>
       <c r="S15" t="n">
-        <v>97277324.20193581</v>
+        <v>96751842.14547406</v>
       </c>
       <c r="T15" t="n">
         <v>12565428.39146139</v>
@@ -1587,13 +1587,13 @@
         <v>1126245683.152387</v>
       </c>
       <c r="I17" t="n">
-        <v>1391784609.785795</v>
+        <v>1373868593.2788</v>
       </c>
       <c r="J17" t="n">
         <v>551717226.12</v>
       </c>
       <c r="K17" t="n">
-        <v>840067383.6657952</v>
+        <v>822151367.1588008</v>
       </c>
       <c r="L17" t="n">
         <v>595763332.8523866</v>
@@ -1608,16 +1608,16 @@
         <v>139050000</v>
       </c>
       <c r="P17" t="n">
-        <v>387682762.5509252</v>
+        <v>378581738.0589008</v>
       </c>
       <c r="Q17" t="n">
-        <v>12621478.88872654</v>
+        <v>12310757.02963538</v>
       </c>
       <c r="R17" t="n">
-        <v>91851080.08949976</v>
+        <v>89594381.00133684</v>
       </c>
       <c r="S17" t="n">
-        <v>264790805.8416625</v>
+        <v>258543234.7739467</v>
       </c>
       <c r="T17" t="n">
         <v>83121256.29498115</v>
@@ -1655,13 +1655,13 @@
         <v>730056405.222</v>
       </c>
       <c r="I18" t="n">
-        <v>876186715.5027299</v>
+        <v>873214054.2171292</v>
       </c>
       <c r="J18" t="n">
         <v>291829750.5</v>
       </c>
       <c r="K18" t="n">
-        <v>584356965.00273</v>
+        <v>581384303.7171295</v>
       </c>
       <c r="L18" t="n">
         <v>228140099.352</v>
@@ -1676,16 +1676,16 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318260551.6522196</v>
+        <v>316542411.7216076</v>
       </c>
       <c r="Q18" t="n">
-        <v>44917.1236051028</v>
+        <v>44675.05182938641</v>
       </c>
       <c r="R18" t="n">
-        <v>33492155.72844486</v>
+        <v>33311713.9018428</v>
       </c>
       <c r="S18" t="n">
-        <v>198912844.7786372</v>
+        <v>197839007.3220263</v>
       </c>
       <c r="T18" t="n">
         <v>33646495.71982323</v>
@@ -1791,13 +1791,13 @@
         <v>940411263.5278653</v>
       </c>
       <c r="I20" t="n">
-        <v>802646810.814078</v>
+        <v>794202891.7272303</v>
       </c>
       <c r="J20" t="n">
         <v>147440994.77</v>
       </c>
       <c r="K20" t="n">
-        <v>655205816.044078</v>
+        <v>646761896.9572303</v>
       </c>
       <c r="L20" t="n">
         <v>456532592.1478653</v>
@@ -1812,16 +1812,16 @@
         <v>93680000</v>
       </c>
       <c r="P20" t="n">
-        <v>317082785.0344513</v>
+        <v>312738750.6141306</v>
       </c>
       <c r="Q20" t="n">
-        <v>9273864.14879901</v>
+        <v>9138955.666666534</v>
       </c>
       <c r="R20" t="n">
-        <v>80528779.61255628</v>
+        <v>79405074.37670685</v>
       </c>
       <c r="S20" t="n">
-        <v>204147549.8604145</v>
+        <v>201306278.9118694</v>
       </c>
       <c r="T20" t="n">
         <v>44172837.38785693</v>
@@ -1859,13 +1859,13 @@
         <v>437506143.348</v>
       </c>
       <c r="I21" t="n">
-        <v>417058794.9024633</v>
+        <v>334412153.9227367</v>
       </c>
       <c r="J21" t="n">
-        <v>193803869.34</v>
+        <v>112310354.34</v>
       </c>
       <c r="K21" t="n">
-        <v>223254925.5624633</v>
+        <v>222101799.5827367</v>
       </c>
       <c r="L21" t="n">
         <v>142570855.878</v>
@@ -1874,22 +1874,22 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1073869.34</v>
+        <v>9580354.34</v>
       </c>
       <c r="O21" t="n">
-        <v>192730000</v>
+        <v>102730000</v>
       </c>
       <c r="P21" t="n">
-        <v>124398068.1368855</v>
+        <v>123725736.2076072</v>
       </c>
       <c r="Q21" t="n">
-        <v>84219.60675956775</v>
+        <v>83765.72218009952</v>
       </c>
       <c r="R21" t="n">
-        <v>11161155.06783602</v>
+        <v>11101022.35775198</v>
       </c>
       <c r="S21" t="n">
-        <v>77748792.58294281</v>
+        <v>77328585.12715803</v>
       </c>
       <c r="T21" t="n">
         <v>9862690.168039372</v>
@@ -1995,13 +1995,13 @@
         <v>1126245683.152387</v>
       </c>
       <c r="I23" t="n">
-        <v>1425625052.201448</v>
+        <v>1407729829.854583</v>
       </c>
       <c r="J23" t="n">
         <v>583326119.05</v>
       </c>
       <c r="K23" t="n">
-        <v>842298933.1514477</v>
+        <v>824403710.8045826</v>
       </c>
       <c r="L23" t="n">
         <v>595763332.8523866</v>
@@ -2016,16 +2016,16 @@
         <v>152230000</v>
       </c>
       <c r="P23" t="n">
-        <v>387769511.5954487</v>
+        <v>378678527.8448159</v>
       </c>
       <c r="Q23" t="n">
-        <v>12606556.08513188</v>
+        <v>12296278.37996479</v>
       </c>
       <c r="R23" t="n">
-        <v>91748061.98872201</v>
+        <v>89494558.29561879</v>
       </c>
       <c r="S23" t="n">
-        <v>264811320.1137274</v>
+        <v>258570862.9157655</v>
       </c>
       <c r="T23" t="n">
         <v>85363483.3684177</v>
@@ -2063,13 +2063,13 @@
         <v>730056405.222</v>
       </c>
       <c r="I24" t="n">
-        <v>971439177.4089651</v>
+        <v>985529202.8046829</v>
       </c>
       <c r="J24" t="n">
-        <v>371564868</v>
+        <v>388707086.4</v>
       </c>
       <c r="K24" t="n">
-        <v>599874309.408965</v>
+        <v>596822116.4046828</v>
       </c>
       <c r="L24" t="n">
         <v>228140099.352</v>
@@ -2078,22 +2078,22 @@
         <v>265418046.3</v>
       </c>
       <c r="N24" t="n">
-        <v>3416821.7</v>
+        <v>20559040.09999999</v>
       </c>
       <c r="O24" t="n">
         <v>102730000</v>
       </c>
       <c r="P24" t="n">
-        <v>326455226.3394305</v>
+        <v>324693066.6895812</v>
       </c>
       <c r="Q24" t="n">
-        <v>18715.46816879283</v>
+        <v>18614.604928911</v>
       </c>
       <c r="R24" t="n">
-        <v>35003279.62184464</v>
+        <v>34814696.91178744</v>
       </c>
       <c r="S24" t="n">
-        <v>204034516.4584515</v>
+        <v>202933166.6773157</v>
       </c>
       <c r="T24" t="n">
         <v>34362571.52106953</v>
@@ -2193,19 +2193,19 @@
         <v>871.024</v>
       </c>
       <c r="G26" t="n">
-        <v>967.0638888888889</v>
+        <v>1239.640277777778</v>
       </c>
       <c r="H26" t="n">
         <v>799003471.0109622</v>
       </c>
       <c r="I26" t="n">
-        <v>504987430.5711443</v>
+        <v>670652073.3070159</v>
       </c>
       <c r="J26" t="n">
-        <v>76780817.53647096</v>
+        <v>125464716.0255032</v>
       </c>
       <c r="K26" t="n">
-        <v>428206613.0346733</v>
+        <v>545187357.2815126</v>
       </c>
       <c r="L26" t="n">
         <v>387884683.9709622</v>
@@ -2214,25 +2214,25 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>29940817.53647097</v>
+        <v>43494716.02550323</v>
       </c>
       <c r="O26" t="n">
-        <v>46840000</v>
+        <v>81970000</v>
       </c>
       <c r="P26" t="n">
-        <v>202168627.3989649</v>
+        <v>261704485.393058</v>
       </c>
       <c r="Q26" t="n">
-        <v>5247849.10099229</v>
+        <v>7104498.691258899</v>
       </c>
       <c r="R26" t="n">
-        <v>47840339.63263655</v>
+        <v>63760679.47985587</v>
       </c>
       <c r="S26" t="n">
-        <v>129183194.8681787</v>
+        <v>167757503.6193721</v>
       </c>
       <c r="T26" t="n">
-        <v>43766602.03390092</v>
+        <v>44860190.09796764</v>
       </c>
     </row>
     <row r="27">
@@ -2267,13 +2267,13 @@
         <v>377392596.256</v>
       </c>
       <c r="I27" t="n">
-        <v>152945075.9683543</v>
+        <v>151095642.7975616</v>
       </c>
       <c r="J27" t="n">
         <v>924926.5200000001</v>
       </c>
       <c r="K27" t="n">
-        <v>152020149.4483542</v>
+        <v>150170716.2775616</v>
       </c>
       <c r="L27" t="n">
         <v>123574148.016</v>
@@ -2288,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>82671341.35075292</v>
+        <v>82229020.20798609</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6881263.205589786</v>
+        <v>6844189.955853845</v>
       </c>
       <c r="S27" t="n">
-        <v>51669588.34307583</v>
+        <v>51393137.62885267</v>
       </c>
       <c r="T27" t="n">
-        <v>10797956.54893573</v>
+        <v>9704368.484869016</v>
       </c>
     </row>
     <row r="28">
@@ -2397,19 +2397,19 @@
         <v>971.2160000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>1348.457777777778</v>
+        <v>1713.287777777778</v>
       </c>
       <c r="H29" t="n">
         <v>956894334.3716944</v>
       </c>
       <c r="I29" t="n">
-        <v>1200796872.418107</v>
+        <v>1409481742.111476</v>
       </c>
       <c r="J29" t="n">
-        <v>586735793.6799999</v>
+        <v>612582365.9399999</v>
       </c>
       <c r="K29" t="n">
-        <v>614061078.7381071</v>
+        <v>796899376.1714761</v>
       </c>
       <c r="L29" t="n">
         <v>506179571.9716945</v>
@@ -2418,25 +2418,25 @@
         <v>478939661.2</v>
       </c>
       <c r="N29" t="n">
-        <v>4226132.48</v>
+        <v>6652704.74</v>
       </c>
       <c r="O29" t="n">
-        <v>103570000</v>
+        <v>126990000</v>
       </c>
       <c r="P29" t="n">
-        <v>268065170.4095717</v>
+        <v>358098844.1457465</v>
       </c>
       <c r="Q29" t="n">
-        <v>8114973.648809868</v>
+        <v>11238953.71761197</v>
       </c>
       <c r="R29" t="n">
-        <v>61745761.94764577</v>
+        <v>84399384.42148927</v>
       </c>
       <c r="S29" t="n">
-        <v>181286265.5643373</v>
+        <v>243204714.9106727</v>
       </c>
       <c r="T29" t="n">
-        <v>94848907.16774242</v>
+        <v>99957478.97595574</v>
       </c>
     </row>
     <row r="30">
@@ -2471,13 +2471,13 @@
         <v>620279259.1159999</v>
       </c>
       <c r="I30" t="n">
-        <v>802510708.0510633</v>
+        <v>794740291.5779527</v>
       </c>
       <c r="J30" t="n">
         <v>274874340.27</v>
       </c>
       <c r="K30" t="n">
-        <v>527636367.7810633</v>
+        <v>519865951.3079526</v>
       </c>
       <c r="L30" t="n">
         <v>193835121.216</v>
@@ -2492,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>280243774.8443234</v>
+        <v>278681012.9808744</v>
       </c>
       <c r="Q30" t="n">
-        <v>114072.7990768975</v>
+        <v>113417.292530466</v>
       </c>
       <c r="R30" t="n">
-        <v>22359219.00024488</v>
+        <v>22238107.22244691</v>
       </c>
       <c r="S30" t="n">
-        <v>175263625.1463532</v>
+        <v>174286309.6292494</v>
       </c>
       <c r="T30" t="n">
-        <v>49655675.99106483</v>
+        <v>44547104.18285153</v>
       </c>
     </row>
     <row r="31">
@@ -2607,13 +2607,13 @@
         <v>170014113.984</v>
       </c>
       <c r="I32" t="n">
-        <v>87131945.43970622</v>
+        <v>86577646.03024511</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>87131945.43970622</v>
+        <v>86577646.03024511</v>
       </c>
       <c r="L32" t="n">
         <v>92605353.98400001</v>
@@ -2628,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>43220339.59011118</v>
+        <v>42909181.84132899</v>
       </c>
       <c r="Q32" t="n">
-        <v>404568.2451223931</v>
+        <v>401383.3208364872</v>
       </c>
       <c r="R32" t="n">
-        <v>5684688.078457998</v>
+        <v>5639406.998775287</v>
       </c>
       <c r="S32" t="n">
-        <v>27050860.54514377</v>
+        <v>26856184.88843346</v>
       </c>
       <c r="T32" t="n">
         <v>10771488.98087088</v>
@@ -2675,13 +2675,13 @@
         <v>275693733.744</v>
       </c>
       <c r="I33" t="n">
-        <v>222672143.8758901</v>
+        <v>222109769.7479696</v>
       </c>
       <c r="J33" t="n">
         <v>112938243</v>
       </c>
       <c r="K33" t="n">
-        <v>109733900.8758901</v>
+        <v>109171526.7479696</v>
       </c>
       <c r="L33" t="n">
         <v>150282733.744</v>
@@ -2696,16 +2696,16 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>53076104.47610126</v>
+        <v>52738801.60357819</v>
       </c>
       <c r="Q33" t="n">
-        <v>113978.7821973867</v>
+        <v>113062.4571824267</v>
       </c>
       <c r="R33" t="n">
-        <v>1659399.573417908</v>
+        <v>1646058.938348623</v>
       </c>
       <c r="S33" t="n">
-        <v>33172565.29520515</v>
+        <v>32961750.99989188</v>
       </c>
       <c r="T33" t="n">
         <v>21711852.74896842</v>
@@ -2743,13 +2743,13 @@
         <v>282663325.872</v>
       </c>
       <c r="I34" t="n">
-        <v>297369558.6530322</v>
+        <v>295450413.1261438</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>297369558.6530322</v>
+        <v>295450413.1261438</v>
       </c>
       <c r="L34" t="n">
         <v>153964495.872</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>147568422.1961855</v>
+        <v>146498589.9854642</v>
       </c>
       <c r="Q34" t="n">
-        <v>1490829.61757259</v>
+        <v>1479046.917227519</v>
       </c>
       <c r="R34" t="n">
-        <v>21088682.80603714</v>
+        <v>20920403.51309506</v>
       </c>
       <c r="S34" t="n">
-        <v>92344708.77847321</v>
+        <v>91675457.45559326</v>
       </c>
       <c r="T34" t="n">
         <v>34876915.25476378</v>
@@ -2811,13 +2811,13 @@
         <v>458364931.452</v>
       </c>
       <c r="I35" t="n">
-        <v>403969979.1647349</v>
+        <v>402935048.849992</v>
       </c>
       <c r="J35" t="n">
         <v>203460994</v>
       </c>
       <c r="K35" t="n">
-        <v>200508985.1647349</v>
+        <v>199474054.849992</v>
       </c>
       <c r="L35" t="n">
         <v>249858181.452</v>
@@ -2832,16 +2832,16 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>93192264.33910522</v>
+        <v>92585429.37052564</v>
       </c>
       <c r="Q35" t="n">
-        <v>441945.2750209203</v>
+        <v>438617.5374875499</v>
       </c>
       <c r="R35" t="n">
-        <v>5749683.916104482</v>
+        <v>5704861.708530205</v>
       </c>
       <c r="S35" t="n">
-        <v>58372326.210629</v>
+        <v>57992380.80957338</v>
       </c>
       <c r="T35" t="n">
         <v>42752765.42387526</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>108789417.7651995</v>
+        <v>108147276.5616555</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>108789417.7651995</v>
+        <v>108147276.5616555</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2900,16 +2900,16 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>51127519.3889197</v>
+        <v>50769231.4802234</v>
       </c>
       <c r="Q36" t="n">
-        <v>537136.8801196783</v>
+        <v>533072.0124604717</v>
       </c>
       <c r="R36" t="n">
-        <v>7049997.687477251</v>
+        <v>6994896.942154945</v>
       </c>
       <c r="S36" t="n">
-        <v>32097755.74565988</v>
+        <v>31873068.06379369</v>
       </c>
       <c r="T36" t="n">
         <v>17977008.06302298</v>
@@ -2947,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>626882041.2425945</v>
+        <v>625277170.353757</v>
       </c>
       <c r="J37" t="n">
         <v>324480057</v>
       </c>
       <c r="K37" t="n">
-        <v>302401984.2425945</v>
+        <v>300797113.3537571</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2968,16 +2968,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>145450947.2957322</v>
+        <v>144507791.9673056</v>
       </c>
       <c r="Q37" t="n">
-        <v>647246.109842376</v>
+        <v>642346.7080627407</v>
       </c>
       <c r="R37" t="n">
-        <v>8499041.920817828</v>
+        <v>8432607.129135314</v>
       </c>
       <c r="S37" t="n">
-        <v>91078509.40733553</v>
+        <v>90488128.04038684</v>
       </c>
       <c r="T37" t="n">
         <v>56726239.50886659</v>
@@ -3015,13 +3015,13 @@
         <v>282663325.872</v>
       </c>
       <c r="I38" t="n">
-        <v>84117499.08177476</v>
+        <v>83607558.42593814</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>84117499.08177476</v>
+        <v>83607558.42593814</v>
       </c>
       <c r="L38" t="n">
         <v>153964495.872</v>
@@ -3036,16 +3036,16 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>38797661.1721388</v>
+        <v>38517828.82307151</v>
       </c>
       <c r="Q38" t="n">
-        <v>469798.2827110137</v>
+        <v>466145.2589741758</v>
       </c>
       <c r="R38" t="n">
-        <v>6463229.815097597</v>
+        <v>6412040.200387061</v>
       </c>
       <c r="S38" t="n">
-        <v>24318476.7852258</v>
+        <v>24143211.11690386</v>
       </c>
       <c r="T38" t="n">
         <v>14068333.02660154</v>
@@ -3083,13 +3083,13 @@
         <v>458364931.452</v>
       </c>
       <c r="I39" t="n">
-        <v>589604138.6630566</v>
+        <v>588145327.3452098</v>
       </c>
       <c r="J39" t="n">
         <v>311989920</v>
       </c>
       <c r="K39" t="n">
-        <v>277614218.6630566</v>
+        <v>276155407.3452099</v>
       </c>
       <c r="L39" t="n">
         <v>249858181.452</v>
@@ -3104,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>132632758.183555</v>
+        <v>131775243.6370884</v>
       </c>
       <c r="Q39" t="n">
-        <v>593427.4053790921</v>
+        <v>588966.3068975778</v>
       </c>
       <c r="R39" t="n">
-        <v>7698390.437966424</v>
+        <v>7638427.481935455</v>
       </c>
       <c r="S39" t="n">
-        <v>83070320.23754735</v>
+        <v>82533447.52067971</v>
       </c>
       <c r="T39" t="n">
         <v>53619322.39860875</v>
